--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/07,25/10,07,25 ПОКОМ КИ филиалы/дв 10,07,25 млрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/07,25/10,07,25 ПОКОМ КИ филиалы/дв 10,07,25 млрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,07,25 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\07,25\10,07,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AADAE44-04F9-48EA-A420-F58B891623EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE165E-8026-4355-8ABF-31E0F564B805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="155">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -511,6 +511,9 @@
   <si>
     <t>14,07,</t>
   </si>
+  <si>
+    <t>переходящий запас</t>
+  </si>
 </sst>
 </file>
 
@@ -965,13 +968,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,9 +992,10 @@
     <col min="20" max="20" width="21" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
     <col min="23" max="32" width="6" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
     <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="51" width="3" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" customWidth="1"/>
+    <col min="36" max="51" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1028,7 +1033,9 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -1402,7 +1409,10 @@
         <f>SUM(AH6:AH500)</f>
         <v>2271</v>
       </c>
-      <c r="AI5" s="1"/>
+      <c r="AI5" s="4">
+        <f>SUM(AI6:AI500)</f>
+        <v>4130.1449999999986</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -1522,7 +1532,10 @@
         <f>ROUND(G6*R6,0)</f>
         <v>35</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="1">
+        <f>Q6*G6*3</f>
+        <v>50.283599999999993</v>
+      </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -1639,7 +1652,10 @@
         <f t="shared" ref="AH7:AH70" si="7">ROUND(G7*R7,0)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="1">
+        <f t="shared" ref="AI7:AI10" si="8">Q7*G7*3</f>
+        <v>99.690000000000012</v>
+      </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -1707,7 +1723,7 @@
         <v>26.283800000000003</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" ref="R8:R10" si="8">11*Q8-P8-O8-F8</f>
+        <f t="shared" ref="R8:R10" si="9">11*Q8-P8-O8-F8</f>
         <v>11.62579999999997</v>
       </c>
       <c r="S8" s="5"/>
@@ -1755,7 +1771,10 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="1">
+        <f t="shared" si="8"/>
+        <v>78.851400000000012</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -1825,7 +1844,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="S9" s="5"/>
@@ -1875,7 +1894,10 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="1">
+        <f t="shared" si="8"/>
+        <v>51.029999999999994</v>
+      </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
@@ -1943,7 +1965,7 @@
         <v>51.6</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>159.60000000000002</v>
       </c>
       <c r="S10" s="5"/>
@@ -1993,7 +2015,10 @@
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AI10" s="1">
+        <f t="shared" si="8"/>
+        <v>69.660000000000011</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -2011,7 +2036,7 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -2213,7 +2238,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="1">
+        <f t="shared" ref="AI12:AI13" si="10">Q12*G12*3</f>
+        <v>0.89999999999999991</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -2328,7 +2356,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="1">
+        <f t="shared" si="10"/>
+        <v>2.4480000000000004</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -2346,7 +2377,7 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>51</v>
       </c>
@@ -2546,7 +2577,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="1">
+        <f t="shared" ref="AI15:AI19" si="11">Q15*G15*3</f>
+        <v>5.4599999999999991</v>
+      </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -2663,7 +2697,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="1"/>
+      <c r="AI16" s="1">
+        <f t="shared" si="11"/>
+        <v>61.2348</v>
+      </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -2782,7 +2819,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="1">
+        <f t="shared" si="11"/>
+        <v>384.20339999999965</v>
+      </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
@@ -2852,7 +2892,7 @@
         <v>14.357400000000002</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" ref="R18" si="9">11*Q18-P18-O18-F18</f>
+        <f t="shared" ref="R18" si="12">11*Q18-P18-O18-F18</f>
         <v>16.691600000000051</v>
       </c>
       <c r="S18" s="5"/>
@@ -2900,7 +2940,10 @@
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="1">
+        <f t="shared" si="11"/>
+        <v>43.072200000000009</v>
+      </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -3020,7 +3063,10 @@
         <f t="shared" si="7"/>
         <v>259</v>
       </c>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="1">
+        <f t="shared" si="11"/>
+        <v>211.51920000000001</v>
+      </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -3038,7 +3084,7 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
@@ -3247,7 +3293,10 @@
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="1">
+        <f t="shared" ref="AI21:AI27" si="13">Q21*G21*3</f>
+        <v>139.83660000000003</v>
+      </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
@@ -3319,7 +3368,7 @@
         <v>17.2</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" ref="R22:R27" si="10">11*Q22-P22-O22-F22</f>
+        <f t="shared" ref="R22:R27" si="14">11*Q22-P22-O22-F22</f>
         <v>44.798000000000016</v>
       </c>
       <c r="S22" s="5"/>
@@ -3369,7 +3418,10 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="1">
+        <f t="shared" si="13"/>
+        <v>51.599999999999994</v>
+      </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -3439,7 +3491,7 @@
         <v>9.0567999999999991</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.8287999999999869</v>
       </c>
       <c r="S23" s="5"/>
@@ -3489,7 +3541,10 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="1">
+        <f t="shared" si="13"/>
+        <v>27.170399999999997</v>
+      </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -3609,7 +3664,10 @@
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="AI24" s="1"/>
+      <c r="AI24" s="1">
+        <f t="shared" si="13"/>
+        <v>53.727599999999995</v>
+      </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -3681,7 +3739,7 @@
         <v>15.077200000000005</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>47.930000000000049</v>
       </c>
       <c r="S25" s="5"/>
@@ -3729,7 +3787,10 @@
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="1">
+        <f t="shared" si="13"/>
+        <v>45.231600000000014</v>
+      </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -3846,7 +3907,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="1">
+        <f t="shared" si="13"/>
+        <v>62.921399999999949</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -3916,7 +3980,7 @@
         <v>18.5868</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36.008800000000001</v>
       </c>
       <c r="S27" s="5"/>
@@ -3964,7 +4028,10 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="1">
+        <f t="shared" si="13"/>
+        <v>55.760400000000004</v>
+      </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -3982,7 +4049,7 @@
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
@@ -4137,7 +4204,7 @@
         <v>18.240199999999998</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" ref="R29:R31" si="11">11*Q29-P29-O29-F29</f>
+        <f t="shared" ref="R29:R31" si="15">11*Q29-P29-O29-F29</f>
         <v>63.828199999999967</v>
       </c>
       <c r="S29" s="5"/>
@@ -4185,7 +4252,10 @@
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="AI29" s="1"/>
+      <c r="AI29" s="1">
+        <f t="shared" ref="AI29:AI32" si="16">Q29*G29*3</f>
+        <v>54.72059999999999</v>
+      </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
@@ -4302,7 +4372,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="1"/>
+      <c r="AI30" s="1">
+        <f t="shared" si="16"/>
+        <v>11.874599999999997</v>
+      </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -4372,7 +4445,7 @@
         <v>8.7286000000000001</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.6585999999999927</v>
       </c>
       <c r="S31" s="5"/>
@@ -4420,7 +4493,10 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AI31" s="1"/>
+      <c r="AI31" s="1">
+        <f t="shared" si="16"/>
+        <v>26.1858</v>
+      </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
@@ -4535,7 +4611,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="1"/>
+      <c r="AI32" s="1">
+        <f t="shared" si="16"/>
+        <v>18.427799999999998</v>
+      </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -4553,7 +4632,7 @@
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>75</v>
       </c>
@@ -4710,7 +4789,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" ref="R34:R36" si="12">11*Q34-P34-O34-F34</f>
+        <f t="shared" ref="R34:R36" si="17">11*Q34-P34-O34-F34</f>
         <v>160.40000000000009</v>
       </c>
       <c r="S34" s="5"/>
@@ -4760,7 +4839,10 @@
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="AI34" s="1"/>
+      <c r="AI34" s="1">
+        <f t="shared" ref="AI34:AI36" si="18">Q34*G34*3</f>
+        <v>83.280000000000015</v>
+      </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -4830,7 +4912,7 @@
         <v>52.4</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>176.39999999999998</v>
       </c>
       <c r="S35" s="5"/>
@@ -4880,7 +4962,10 @@
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="AI35" s="1"/>
+      <c r="AI35" s="1">
+        <f t="shared" si="18"/>
+        <v>70.739999999999995</v>
+      </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -4952,7 +5037,7 @@
         <v>87.2</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>167.20000000000005</v>
       </c>
       <c r="S36" s="5"/>
@@ -5002,7 +5087,10 @@
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="AI36" s="1"/>
+      <c r="AI36" s="1">
+        <f t="shared" si="18"/>
+        <v>104.64000000000001</v>
+      </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
@@ -5020,7 +5108,7 @@
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>82</v>
       </c>
@@ -5125,7 +5213,7 @@
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -5148,7 +5236,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14">
-        <f t="shared" ref="L38:L69" si="13">E38-K38</f>
+        <f t="shared" ref="L38:L69" si="19">E38-K38</f>
         <v>0</v>
       </c>
       <c r="M38" s="14">
@@ -5263,7 +5351,7 @@
         <v>111</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-6</v>
       </c>
       <c r="M39" s="1">
@@ -5327,7 +5415,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="1"/>
+      <c r="AI39" s="1">
+        <f t="shared" ref="AI39:AI42" si="20">Q39*G39*3</f>
+        <v>22.049999999999997</v>
+      </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -5378,7 +5469,7 @@
         <v>100.8</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-5.2680000000000007</v>
       </c>
       <c r="M40" s="1">
@@ -5397,7 +5488,7 @@
         <v>19.106400000000001</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" ref="R40" si="14">11*Q40-P40-O40-F40</f>
+        <f t="shared" ref="R40" si="21">11*Q40-P40-O40-F40</f>
         <v>46.115400000000022</v>
       </c>
       <c r="S40" s="5"/>
@@ -5445,7 +5536,10 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="AI40" s="1"/>
+      <c r="AI40" s="1">
+        <f t="shared" si="20"/>
+        <v>57.319200000000002</v>
+      </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -5496,7 +5590,7 @@
         <v>96</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-21</v>
       </c>
       <c r="M41" s="1">
@@ -5560,7 +5654,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="1"/>
+      <c r="AI41" s="1">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
@@ -5611,7 +5708,7 @@
         <v>119</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-5</v>
       </c>
       <c r="M42" s="1">
@@ -5673,7 +5770,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="1">
+        <f t="shared" si="20"/>
+        <v>27.360000000000003</v>
+      </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -5691,7 +5791,7 @@
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>89</v>
       </c>
@@ -5718,7 +5818,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>21.71</v>
       </c>
       <c r="M43" s="11">
@@ -5833,7 +5933,7 @@
         <v>93.9</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5.3009999999999877</v>
       </c>
       <c r="M44" s="1">
@@ -5852,7 +5952,7 @@
         <v>15.516399999999999</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" ref="R44:R48" si="15">11*Q44-P44-O44-F44</f>
+        <f t="shared" ref="R44:R48" si="22">11*Q44-P44-O44-F44</f>
         <v>42.918399999999991</v>
       </c>
       <c r="S44" s="5"/>
@@ -5900,7 +6000,10 @@
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="1">
+        <f t="shared" ref="AI44:AI49" si="23">Q44*G44*3</f>
+        <v>46.549199999999999</v>
+      </c>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
@@ -5951,7 +6054,7 @@
         <v>160</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-41</v>
       </c>
       <c r="M45" s="1">
@@ -5972,7 +6075,7 @@
         <v>19</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
       <c r="S45" s="5"/>
@@ -6022,7 +6125,10 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="AI45" s="1"/>
+      <c r="AI45" s="1">
+        <f t="shared" si="23"/>
+        <v>19.95</v>
+      </c>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -6073,7 +6179,7 @@
         <v>144</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>416</v>
       </c>
       <c r="M46" s="1">
@@ -6141,7 +6247,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="1">
+        <f t="shared" si="23"/>
+        <v>33.6</v>
+      </c>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -6192,7 +6301,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>182.708</v>
       </c>
       <c r="M47" s="1">
@@ -6260,7 +6369,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI47" s="1"/>
+      <c r="AI47" s="1">
+        <f t="shared" si="23"/>
+        <v>11.508000000000003</v>
+      </c>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
@@ -6309,7 +6421,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.67400000000000659</v>
       </c>
       <c r="M48" s="1">
@@ -6328,7 +6440,7 @@
         <v>15.545199999999999</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>21.077199999999984</v>
       </c>
       <c r="S48" s="5"/>
@@ -6378,7 +6490,10 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="AI48" s="1"/>
+      <c r="AI48" s="1">
+        <f t="shared" si="23"/>
+        <v>46.635599999999997</v>
+      </c>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -6429,7 +6544,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6.8270000000000124</v>
       </c>
       <c r="M49" s="1">
@@ -6495,7 +6610,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="1"/>
+      <c r="AI49" s="1">
+        <f t="shared" si="23"/>
+        <v>43.156199999999998</v>
+      </c>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -6513,7 +6631,7 @@
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>97</v>
       </c>
@@ -6540,7 +6658,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="M50" s="11">
@@ -6653,7 +6771,7 @@
         <v>201</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-8</v>
       </c>
       <c r="M51" s="1">
@@ -6720,7 +6838,10 @@
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="1">
+        <f t="shared" ref="AI51:AI54" si="24">Q51*G51*3</f>
+        <v>52.11</v>
+      </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -6761,7 +6882,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
@@ -6825,7 +6946,10 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AI52" s="1"/>
+      <c r="AI52" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
@@ -6876,7 +7000,7 @@
         <v>123</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-18</v>
       </c>
       <c r="M53" s="1">
@@ -6942,7 +7066,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="1"/>
+      <c r="AI53" s="1">
+        <f t="shared" si="24"/>
+        <v>19.440000000000001</v>
+      </c>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
@@ -6993,7 +7120,7 @@
         <v>113</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-7</v>
       </c>
       <c r="M54" s="1">
@@ -7059,7 +7186,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="1"/>
+      <c r="AI54" s="1">
+        <f t="shared" si="24"/>
+        <v>19.68</v>
+      </c>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
@@ -7077,7 +7207,7 @@
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>103</v>
       </c>
@@ -7104,7 +7234,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>363.91</v>
       </c>
       <c r="M55" s="14">
@@ -7221,7 +7351,7 @@
         <v>84.7</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.82900000000000773</v>
       </c>
       <c r="M56" s="1">
@@ -7238,7 +7368,7 @@
         <v>16.7742</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" ref="R56" si="16">11*Q56-P56-O56-F56</f>
+        <f t="shared" ref="R56" si="25">11*Q56-P56-O56-F56</f>
         <v>42.648199999999974</v>
       </c>
       <c r="S56" s="5"/>
@@ -7288,7 +7418,10 @@
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AI56" s="1"/>
+      <c r="AI56" s="1">
+        <f t="shared" ref="AI56:AI57" si="26">Q56*G56*3</f>
+        <v>50.322600000000001</v>
+      </c>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
@@ -7339,7 +7472,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.33999999999999986</v>
       </c>
       <c r="M57" s="1">
@@ -7403,7 +7536,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI57" s="1"/>
+      <c r="AI57" s="1">
+        <f t="shared" si="26"/>
+        <v>8.1960000000000015</v>
+      </c>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
@@ -7421,7 +7557,7 @@
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>106</v>
       </c>
@@ -7444,7 +7580,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M58" s="14">
@@ -7559,7 +7695,7 @@
         <v>497</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>157</v>
       </c>
       <c r="M59" s="1">
@@ -7580,7 +7716,7 @@
         <v>94.8</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" ref="R59:R62" si="17">11*Q59-P59-O59-F59</f>
+        <f t="shared" ref="R59:R62" si="27">11*Q59-P59-O59-F59</f>
         <v>208.79999999999995</v>
       </c>
       <c r="S59" s="5"/>
@@ -7628,7 +7764,10 @@
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="AI59" s="1"/>
+      <c r="AI59" s="1">
+        <f t="shared" ref="AI59:AI62" si="28">Q59*G59*3</f>
+        <v>113.76</v>
+      </c>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
@@ -7679,7 +7818,7 @@
         <v>472</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>589</v>
       </c>
       <c r="M60" s="1">
@@ -7700,7 +7839,7 @@
         <v>92.2</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>259.20000000000005</v>
       </c>
       <c r="S60" s="5"/>
@@ -7750,7 +7889,10 @@
         <f t="shared" si="7"/>
         <v>104</v>
       </c>
-      <c r="AI60" s="1"/>
+      <c r="AI60" s="1">
+        <f t="shared" si="28"/>
+        <v>110.64000000000001</v>
+      </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -7801,7 +7943,7 @@
         <v>152.30000000000001</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>159.76</v>
       </c>
       <c r="M61" s="1">
@@ -7820,7 +7962,7 @@
         <v>31.387999999999998</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>32.832000000000079</v>
       </c>
       <c r="S61" s="5"/>
@@ -7868,7 +8010,10 @@
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="1">
+        <f t="shared" si="28"/>
+        <v>94.163999999999987</v>
+      </c>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -7919,7 +8064,7 @@
         <v>162.5</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>215.10199999999998</v>
       </c>
       <c r="M62" s="1">
@@ -7938,7 +8083,7 @@
         <v>33.883599999999994</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>42.508599999999944</v>
       </c>
       <c r="S62" s="5"/>
@@ -7986,7 +8131,10 @@
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="1">
+        <f t="shared" si="28"/>
+        <v>101.65079999999998</v>
+      </c>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
@@ -8004,7 +8152,7 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>111</v>
       </c>
@@ -8031,7 +8179,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>126.337</v>
       </c>
       <c r="M63" s="11">
@@ -8146,7 +8294,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>203.279</v>
       </c>
       <c r="M64" s="1">
@@ -8214,7 +8362,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI64" s="1"/>
+      <c r="AI64" s="1">
+        <f t="shared" ref="AI64:AI65" si="29">Q64*G64*3</f>
+        <v>2.236800000000005</v>
+      </c>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
@@ -8265,7 +8416,7 @@
         <v>40.1</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-6.0360000000000014</v>
       </c>
       <c r="M65" s="1">
@@ -8329,7 +8480,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI65" s="1"/>
+      <c r="AI65" s="1">
+        <f t="shared" si="29"/>
+        <v>20.438400000000001</v>
+      </c>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
@@ -8347,7 +8501,7 @@
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>115</v>
       </c>
@@ -8370,7 +8524,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M66" s="14">
@@ -8452,7 +8606,7 @@
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>116</v>
       </c>
@@ -8475,7 +8629,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M67" s="14">
@@ -8588,7 +8742,7 @@
         <v>110</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-63</v>
       </c>
       <c r="M68" s="1">
@@ -8654,7 +8808,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI68" s="1"/>
+      <c r="AI68" s="1">
+        <f>Q68*G68*3</f>
+        <v>10.434000000000001</v>
+      </c>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
@@ -8672,7 +8829,7 @@
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>119</v>
       </c>
@@ -8695,7 +8852,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M69" s="14">
@@ -8777,7 +8934,7 @@
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>120</v>
       </c>
@@ -8800,7 +8957,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14">
-        <f t="shared" ref="L70:L98" si="18">E70-K70</f>
+        <f t="shared" ref="L70:L98" si="30">E70-K70</f>
         <v>0</v>
       </c>
       <c r="M70" s="14">
@@ -8882,7 +9039,7 @@
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>121</v>
       </c>
@@ -8905,11 +9062,11 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M71" s="14">
-        <f t="shared" ref="M71:M98" si="19">E71-N71</f>
+        <f t="shared" ref="M71:M98" si="31">E71-N71</f>
         <v>0</v>
       </c>
       <c r="N71" s="14"/>
@@ -8918,18 +9075,18 @@
         <v>0</v>
       </c>
       <c r="Q71" s="14">
-        <f t="shared" ref="Q71:Q98" si="20">M71/5</f>
+        <f t="shared" ref="Q71:Q98" si="32">M71/5</f>
         <v>0</v>
       </c>
       <c r="R71" s="16"/>
       <c r="S71" s="16"/>
       <c r="T71" s="14"/>
       <c r="U71" s="14" t="e">
-        <f t="shared" ref="U71:U98" si="21">(F71+O71+P71+R71)/Q71</f>
+        <f t="shared" ref="U71:U98" si="33">(F71+O71+P71+R71)/Q71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V71" s="14" t="e">
-        <f t="shared" ref="V71:V98" si="22">(F71+O71+P71)/Q71</f>
+        <f t="shared" ref="V71:V98" si="34">(F71+O71+P71)/Q71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W71" s="14">
@@ -8966,7 +9123,7 @@
         <v>48</v>
       </c>
       <c r="AH71" s="1">
-        <f t="shared" ref="AH71:AH98" si="23">ROUND(G71*R71,0)</f>
+        <f t="shared" ref="AH71:AH98" si="35">ROUND(G71*R71,0)</f>
         <v>0</v>
       </c>
       <c r="AI71" s="1"/>
@@ -9020,11 +9177,11 @@
         <v>108</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-13</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>95</v>
       </c>
       <c r="N72" s="1"/>
@@ -9033,7 +9190,7 @@
         <v>25</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
       <c r="R72" s="5">
@@ -9043,11 +9200,11 @@
       <c r="S72" s="5"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>6.4736842105263159</v>
       </c>
       <c r="W72" s="1">
@@ -9082,10 +9239,13 @@
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>57</v>
       </c>
-      <c r="AI72" s="1"/>
+      <c r="AI72" s="1">
+        <f t="shared" ref="AI72:AI74" si="36">Q72*G72*3</f>
+        <v>22.8</v>
+      </c>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
@@ -9136,11 +9296,11 @@
         <v>80</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>80</v>
       </c>
       <c r="N73" s="1"/>
@@ -9151,21 +9311,21 @@
         <v>63.800000000000011</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" ref="R73" si="24">11*Q73-P73-O73-F73</f>
+        <f t="shared" ref="R73" si="37">11*Q73-P73-O73-F73</f>
         <v>23</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>9.5625</v>
       </c>
       <c r="W73" s="1">
@@ -9200,10 +9360,13 @@
       </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="1">
+        <f t="shared" si="36"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
@@ -9252,11 +9415,11 @@
         <v>4.5</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-0.1639999999999997</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4.3360000000000003</v>
       </c>
       <c r="N74" s="1"/>
@@ -9267,18 +9430,18 @@
         <v>5.1867999999999981</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.86720000000000008</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>26.669741697416971</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>26.669741697416971</v>
       </c>
       <c r="W74" s="1">
@@ -9315,10 +9478,13 @@
         <v>68</v>
       </c>
       <c r="AH74" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="1">
+        <f t="shared" si="36"/>
+        <v>2.6016000000000004</v>
+      </c>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
@@ -9336,7 +9502,7 @@
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>125</v>
       </c>
@@ -9359,11 +9525,11 @@
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
       <c r="L75" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M75" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N75" s="14"/>
@@ -9372,18 +9538,18 @@
         <v>0</v>
       </c>
       <c r="Q75" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
       <c r="T75" s="14"/>
       <c r="U75" s="14" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V75" s="14" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W75" s="14">
@@ -9420,7 +9586,7 @@
         <v>126</v>
       </c>
       <c r="AH75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI75" s="1"/>
@@ -9474,11 +9640,11 @@
         <v>24</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-17</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="N76" s="1"/>
@@ -9489,18 +9655,18 @@
         <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4</v>
       </c>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>53.285714285714285</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>53.285714285714285</v>
       </c>
       <c r="W76" s="1">
@@ -9537,10 +9703,13 @@
         <v>151</v>
       </c>
       <c r="AH76" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI76" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI76" s="1">
+        <f t="shared" ref="AI76:AI83" si="38">Q76*G76*3</f>
+        <v>0.83999999999999986</v>
+      </c>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
@@ -9591,11 +9760,11 @@
         <v>72.510000000000005</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-1.1890000000000072</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>71.320999999999998</v>
       </c>
       <c r="N77" s="1"/>
@@ -9604,18 +9773,18 @@
         <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>14.264199999999999</v>
       </c>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>14.039483462093914</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>14.039483462093914</v>
       </c>
       <c r="W77" s="1">
@@ -9652,10 +9821,13 @@
         <v>62</v>
       </c>
       <c r="AH77" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI77" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI77" s="1">
+        <f t="shared" si="38"/>
+        <v>42.792599999999993</v>
+      </c>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
@@ -9706,11 +9878,11 @@
         <v>390.5</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1711.2159999999999</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>384.30099999999993</v>
       </c>
       <c r="N78" s="1">
@@ -9723,18 +9895,18 @@
         <v>656.65440000000001</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>76.860199999999992</v>
       </c>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>14.572912899003647</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>14.572912899003647</v>
       </c>
       <c r="W78" s="1">
@@ -9771,10 +9943,13 @@
         <v>59</v>
       </c>
       <c r="AH78" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI78" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI78" s="1">
+        <f t="shared" si="38"/>
+        <v>230.58059999999998</v>
+      </c>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
@@ -9825,11 +10000,11 @@
         <v>412.5</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3999.6769999999997</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>407.04199999999946</v>
       </c>
       <c r="N79" s="1">
@@ -9840,21 +10015,21 @@
         <v>500</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>81.408399999999887</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" ref="R79:R80" si="25">14*Q79-P79-O79-F79</f>
+        <f t="shared" ref="R79:R80" si="39">14*Q79-P79-O79-F79</f>
         <v>190.53959999999836</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>11.659460203124018</v>
       </c>
       <c r="W79" s="1">
@@ -9891,10 +10066,13 @@
         <v>59</v>
       </c>
       <c r="AH79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>191</v>
       </c>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="1">
+        <f t="shared" si="38"/>
+        <v>244.22519999999966</v>
+      </c>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
@@ -9945,11 +10123,11 @@
         <v>757.5</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5994.7879999999996</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>754.81099999999969</v>
       </c>
       <c r="N80" s="1">
@@ -9962,21 +10140,21 @@
         <v>500</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>150.96219999999994</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>304.45359999999982</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>11.98324613711247</v>
       </c>
       <c r="W80" s="1">
@@ -10013,10 +10191,13 @@
         <v>39</v>
       </c>
       <c r="AH80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>304</v>
       </c>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="1">
+        <f t="shared" si="38"/>
+        <v>452.88659999999982</v>
+      </c>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
@@ -10065,11 +10246,11 @@
         <v>2.9</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-2.9159999999999999</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>-1.6E-2</v>
       </c>
       <c r="N81" s="1"/>
@@ -10078,18 +10259,18 @@
         <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>-3.2000000000000002E-3</v>
       </c>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-4653.125</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>-4653.125</v>
       </c>
       <c r="W81" s="1">
@@ -10126,10 +10307,13 @@
         <v>53</v>
       </c>
       <c r="AH81" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI81" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI81" s="1">
+        <f t="shared" si="38"/>
+        <v>-9.6000000000000009E-3</v>
+      </c>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
@@ -10180,11 +10364,11 @@
         <v>1.5</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-0.15199999999999991</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.3480000000000001</v>
       </c>
       <c r="N82" s="1"/>
@@ -10193,18 +10377,18 @@
         <v>0</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.26960000000000001</v>
       </c>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>109.85163204747774</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>109.85163204747774</v>
       </c>
       <c r="W82" s="1">
@@ -10241,10 +10425,13 @@
         <v>53</v>
       </c>
       <c r="AH82" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI82" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
+        <f t="shared" si="38"/>
+        <v>0.80879999999999996</v>
+      </c>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
@@ -10291,11 +10478,11 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N83" s="1"/>
@@ -10304,18 +10491,18 @@
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V83" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W83" s="1">
@@ -10352,10 +10539,13 @@
         <v>53</v>
       </c>
       <c r="AH83" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI83" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
       <c r="AL83" s="1"/>
@@ -10373,7 +10563,7 @@
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>135</v>
       </c>
@@ -10396,11 +10586,11 @@
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N84" s="14"/>
@@ -10409,18 +10599,18 @@
         <v>0</v>
       </c>
       <c r="Q84" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R84" s="16"/>
       <c r="S84" s="16"/>
       <c r="T84" s="14"/>
       <c r="U84" s="14" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V84" s="14" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W84" s="14">
@@ -10457,7 +10647,7 @@
         <v>48</v>
       </c>
       <c r="AH84" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI84" s="1"/>
@@ -10511,11 +10701,11 @@
         <v>102</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-7</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>95</v>
       </c>
       <c r="N85" s="1"/>
@@ -10524,21 +10714,21 @@
         <v>27</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" ref="R85:R87" si="26">11*Q85-P85-O85-F85</f>
+        <f t="shared" ref="R85:R87" si="40">11*Q85-P85-O85-F85</f>
         <v>82</v>
       </c>
       <c r="S85" s="5"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>6.6842105263157894</v>
       </c>
       <c r="W85" s="1">
@@ -10573,10 +10763,13 @@
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>25</v>
       </c>
-      <c r="AI85" s="1"/>
+      <c r="AI85" s="1">
+        <f t="shared" ref="AI85:AI87" si="41">Q85*G85*3</f>
+        <v>17.100000000000001</v>
+      </c>
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
@@ -10625,11 +10818,11 @@
         <v>37</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-10</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>27</v>
       </c>
       <c r="N86" s="1"/>
@@ -10640,18 +10833,18 @@
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>5.4</v>
       </c>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>25.74074074074074</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>25.74074074074074</v>
       </c>
       <c r="W86" s="1">
@@ -10688,10 +10881,13 @@
         <v>53</v>
       </c>
       <c r="AH86" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI86" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <f t="shared" si="41"/>
+        <v>4.8600000000000003</v>
+      </c>
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
@@ -10742,11 +10938,11 @@
         <v>44</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-3</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
       <c r="N87" s="1"/>
@@ -10757,21 +10953,21 @@
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>12.599999999999994</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>9.463414634146341</v>
       </c>
       <c r="W87" s="1">
@@ -10806,10 +11002,13 @@
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="AI87" s="1"/>
+      <c r="AI87" s="1">
+        <f t="shared" si="41"/>
+        <v>7.379999999999999</v>
+      </c>
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
@@ -10827,7 +11026,7 @@
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>139</v>
       </c>
@@ -10854,11 +11053,11 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>153.255</v>
       </c>
       <c r="M88" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N88" s="11">
@@ -10867,18 +11066,18 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V88" s="11" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W88" s="11">
@@ -10913,7 +11112,7 @@
       </c>
       <c r="AG88" s="11"/>
       <c r="AH88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI88" s="1"/>
@@ -10965,11 +11164,11 @@
         <v>8</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="N89" s="1"/>
@@ -10978,21 +11177,21 @@
         <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.6</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" ref="R89:R95" si="27">11*Q89-P89-O89-F89</f>
+        <f t="shared" ref="R89:R95" si="42">11*Q89-P89-O89-F89</f>
         <v>8.6000000000000014</v>
       </c>
       <c r="S89" s="5"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>5.625</v>
       </c>
       <c r="W89" s="1">
@@ -11027,10 +11226,13 @@
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI89" s="1">
+        <f t="shared" ref="AI89:AI98" si="43">Q89*G89*3</f>
+        <v>0.24000000000000005</v>
+      </c>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
@@ -11081,11 +11283,11 @@
         <v>383</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>35.685000000000002</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>418.685</v>
       </c>
       <c r="N90" s="1"/>
@@ -11094,21 +11296,21 @@
         <v>200</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>83.736999999999995</v>
       </c>
       <c r="R90" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>4.6150000000000091</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>10.944886967529289</v>
       </c>
       <c r="W90" s="1">
@@ -11145,10 +11347,13 @@
         <v>62</v>
       </c>
       <c r="AH90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="AI90" s="1"/>
+      <c r="AI90" s="1">
+        <f t="shared" si="43"/>
+        <v>251.21099999999998</v>
+      </c>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
@@ -11199,11 +11404,11 @@
         <v>99</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-12</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>87</v>
       </c>
       <c r="N91" s="1"/>
@@ -11214,21 +11419,21 @@
         <v>83.800000000000011</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>17.399999999999999</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>56.399999999999977</v>
       </c>
       <c r="S91" s="5"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>7.7586206896551735</v>
       </c>
       <c r="W91" s="1">
@@ -11263,10 +11468,13 @@
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
-      <c r="AI91" s="1"/>
+      <c r="AI91" s="1">
+        <f t="shared" si="43"/>
+        <v>15.66</v>
+      </c>
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
@@ -11315,11 +11523,11 @@
         <v>35</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-18</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="N92" s="1"/>
@@ -11328,18 +11536,18 @@
         <v>0</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.4</v>
       </c>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>22.941176470588236</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>22.941176470588236</v>
       </c>
       <c r="W92" s="1">
@@ -11376,10 +11584,13 @@
         <v>144</v>
       </c>
       <c r="AH92" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI92" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI92" s="1">
+        <f t="shared" si="43"/>
+        <v>3.06</v>
+      </c>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
@@ -11430,11 +11641,11 @@
         <v>11.1</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-1.6539999999999999</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>9.4459999999999997</v>
       </c>
       <c r="N93" s="1"/>
@@ -11443,18 +11654,18 @@
         <v>0</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8892</v>
       </c>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.668642811772177</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>24.668642811772177</v>
       </c>
       <c r="W93" s="1">
@@ -11491,10 +11702,13 @@
         <v>68</v>
       </c>
       <c r="AH93" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI93" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI93" s="1">
+        <f t="shared" si="43"/>
+        <v>5.6676000000000002</v>
+      </c>
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
@@ -11545,11 +11759,11 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>8.16</v>
       </c>
       <c r="N94" s="1"/>
@@ -11560,18 +11774,18 @@
         <v>0</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.6320000000000001</v>
       </c>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>18.448039215686272</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>18.448039215686272</v>
       </c>
       <c r="W94" s="1">
@@ -11608,10 +11822,13 @@
         <v>68</v>
       </c>
       <c r="AH94" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI94" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI94" s="1">
+        <f t="shared" si="43"/>
+        <v>4.8960000000000008</v>
+      </c>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
@@ -11660,11 +11877,11 @@
         <v>22</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="N95" s="1"/>
@@ -11673,21 +11890,21 @@
         <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.6</v>
       </c>
       <c r="R95" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>18.600000000000001</v>
       </c>
       <c r="S95" s="5"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>5.833333333333333</v>
       </c>
       <c r="W95" s="1">
@@ -11722,10 +11939,13 @@
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="AI95" s="1"/>
+      <c r="AI95" s="1">
+        <f t="shared" si="43"/>
+        <v>3.5640000000000005</v>
+      </c>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
@@ -11776,11 +11996,11 @@
         <v>19</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-3</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="N96" s="1"/>
@@ -11789,18 +12009,18 @@
         <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.2</v>
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="W96" s="1">
@@ -11835,10 +12055,13 @@
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI96" s="1"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI96" s="1">
+        <f t="shared" si="43"/>
+        <v>2.88</v>
+      </c>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
@@ -11889,11 +12112,11 @@
         <v>17</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-3</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="N97" s="1"/>
@@ -11902,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.8</v>
       </c>
       <c r="R97" s="5">
@@ -11911,11 +12134,11 @@
       <c r="S97" s="5"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>12.142857142857144</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="W97" s="1">
@@ -11950,10 +12173,13 @@
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AI97" s="1"/>
+      <c r="AI97" s="1">
+        <f t="shared" si="43"/>
+        <v>1.008</v>
+      </c>
       <c r="AJ97" s="1"/>
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
@@ -12002,18 +12228,18 @@
         <v>3</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.70400000000000018</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>3.7040000000000002</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.74080000000000001</v>
       </c>
       <c r="R98" s="17">
@@ -12022,11 +12248,11 @@
       <c r="S98" s="5"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>7.3825593952483803</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9829913606911447</v>
       </c>
       <c r="W98" s="1">
@@ -12063,10 +12289,13 @@
         <v>100</v>
       </c>
       <c r="AH98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="AI98" s="1"/>
+      <c r="AI98" s="1">
+        <f t="shared" si="43"/>
+        <v>2.2223999999999999</v>
+      </c>
       <c r="AJ98" s="1"/>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1"/>
@@ -33391,7 +33620,23 @@
       <c r="AY500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AH98" xr:uid="{089D2BE9-BF9A-4034-8931-8DE60C1A041A}"/>
+  <autoFilter ref="A3:AH98" xr:uid="{089D2BE9-BF9A-4034-8931-8DE60C1A041A}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0,05"/>
+        <filter val="0,12"/>
+        <filter val="0,17"/>
+        <filter val="0,20"/>
+        <filter val="0,30"/>
+        <filter val="0,33"/>
+        <filter val="0,35"/>
+        <filter val="0,37"/>
+        <filter val="0,40"/>
+        <filter val="0,45"/>
+        <filter val="1,00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
